--- a/ResultData/SpeedTest_Home/data.xlsx
+++ b/ResultData/SpeedTest_Home/data.xlsx
@@ -103,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +424,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,13 +470,13 @@
       <c r="D2">
         <v>0.41</v>
       </c>
-      <c r="E2">
-        <f>C2 * 1000 / 8</f>
-        <v>220</v>
-      </c>
-      <c r="F2">
-        <f>D2 * 1000 / 8</f>
-        <v>51.25</v>
+      <c r="E2" s="2">
+        <f>C2 * 122.0703125</f>
+        <v>214.84375</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2 * 122.0703125</f>
+        <v>50.048828125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -491,13 +492,13 @@
       <c r="D3">
         <v>0.44</v>
       </c>
-      <c r="E3">
-        <f>C3 * 1000 / 8</f>
-        <v>221.25</v>
-      </c>
-      <c r="F3">
-        <f>D3 * 1000 / 8</f>
-        <v>55</v>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="0">C3 * 122.0703125</f>
+        <v>216.064453125</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="1">D3 * 122.0703125</f>
+        <v>53.7109375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,13 +514,13 @@
       <c r="D4">
         <v>0.43</v>
       </c>
-      <c r="E4">
-        <f>C4 * 1000 / 8</f>
-        <v>218.75</v>
-      </c>
-      <c r="F4">
-        <f>D4 * 1000 / 8</f>
-        <v>53.75</v>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>213.623046875</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>52.490234375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,13 +536,13 @@
       <c r="D5">
         <v>0.35</v>
       </c>
-      <c r="E5">
-        <f>C5 * 1000 / 8</f>
-        <v>215</v>
-      </c>
-      <c r="F5">
-        <f>D5 * 1000 / 8</f>
-        <v>43.75</v>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>209.9609375</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>42.724609375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,13 +558,13 @@
       <c r="D6">
         <v>0.45</v>
       </c>
-      <c r="E6">
-        <f>C6 * 1000 / 8</f>
-        <v>221.25</v>
-      </c>
-      <c r="F6">
-        <f>D6 * 1000 / 8</f>
-        <v>56.25</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>216.064453125</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>54.931640625</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,20 +576,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="0">AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:F7" si="2">AVERAGE(C2:C6)</f>
         <v>1.754</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.41600000000000004</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>219.25</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>214.111328125</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>50.78125</v>
       </c>
     </row>
   </sheetData>

--- a/ResultData/SpeedTest_Home/data.xlsx
+++ b/ResultData/SpeedTest_Home/data.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
